--- a/uk/scotland/jcvi-table_20210728.xlsx
+++ b/uk/scotland/jcvi-table_20210728.xlsx
@@ -74,9 +74,6 @@
     <t>The denominator is taken from the TURAS Care Home Safety Huddle Tool (https://www.gov.scot/publications/coronavirus-covid-19-care-home-staffing-and-escalation-resources/), which provides an estimate of those working in long-stay residential and nursing care homes or other long-stay care facilities for older adults. This includes non-clinical ancillary staff who may have social contact with resident but are not directly involved in patient care, such as cleaners and kitchen staff.  Please note the huddle tool is self-reported by care homes and not quality assured centrally. Latest data from February 2021 estimates that there are around 50,000 staff (to the nearest 1,000) in care homes for older adults. Please note that vaccinations within GP practices do not include eligibility criteria, therefore Public Health Scotland are unable to capture care home staff who have been vaccinated in GP practices. The number of people vaccinated in this group will therefore be an undercount.</t>
   </si>
   <si>
-    <t xml:space="preserve">Unpaid carers </t>
-  </si>
-  <si>
     <t>Any Care home residents</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>All those from the denominator list who have received the vaccination.</t>
+  </si>
+  <si>
+    <t>Unpaid carers 16 and over</t>
   </si>
 </sst>
 </file>
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:WT16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,7 +706,7 @@
   <sheetData>
     <row r="1" spans="1:618" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
@@ -3189,7 +3189,7 @@
     </row>
     <row r="5" spans="1:618" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>4</v>
@@ -3818,7 +3818,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>11</v>
@@ -5078,10 +5078,10 @@
     </row>
     <row r="9" spans="1:618" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>6</v>
@@ -5089,10 +5089,10 @@
     </row>
     <row r="10" spans="1:618" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>6</v>
@@ -5103,7 +5103,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>11</v>
@@ -5726,10 +5726,10 @@
     </row>
     <row r="12" spans="1:618" s="16" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>6</v>
@@ -6352,24 +6352,24 @@
     </row>
     <row r="13" spans="1:618" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:618" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="C14" s="26" t="s">
         <v>30</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:618" x14ac:dyDescent="0.25">
